--- a/data/trans_orig/P36B11_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B11_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B83A506F-5E0F-4F76-AFBF-EBD3F8DC3354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC81EB16-06C0-4482-B522-E5E7D86D5D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B2FFA71-5673-4A27-A17D-F73FF7B66C6C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF1B1D55-221C-4105-BFC3-3743A39D295F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="204">
   <si>
     <t>Población según el número de veces que consumen repostería comercial a la semana en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>32,36%</t>
   </si>
   <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
   </si>
   <si>
     <t>39,35%</t>
   </si>
   <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
   </si>
   <si>
     <t>35,74%</t>
   </si>
   <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
   </si>
   <si>
     <t>Uno o dos a la semana</t>
@@ -104,28 +104,28 @@
     <t>45,01%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
   </si>
   <si>
     <t>44,74%</t>
   </si>
   <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
   </si>
   <si>
     <t>44,88%</t>
   </si>
   <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
   </si>
   <si>
     <t>Tres o más a la semana</t>
@@ -134,523 +134,517 @@
     <t>22,63%</t>
   </si>
   <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
     <t>16,05%</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
   </si>
   <si>
     <t>32,2%</t>
   </si>
   <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
+    <t>37,63%</t>
   </si>
   <si>
     <t>36,23%</t>
   </si>
   <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
   </si>
   <si>
     <t>17,28%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
+    <t>18,99%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1065,7 +1059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1D8690-832B-4A75-9EC7-FD097C9D2FCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A694352-B2A7-4F80-9DF3-DD954AAE5DD2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1667,13 +1661,13 @@
         <v>225964</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>526</v>
@@ -1682,13 +1676,13 @@
         <v>442294</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,13 +1697,13 @@
         <v>97966</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>115</v>
@@ -1718,13 +1712,13 @@
         <v>78771</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>214</v>
@@ -1733,13 +1727,13 @@
         <v>176737</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1795,7 +1789,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1807,13 +1801,13 @@
         <v>366343</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>575</v>
@@ -1822,13 +1816,13 @@
         <v>372667</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>900</v>
@@ -1837,13 +1831,13 @@
         <v>739010</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,13 +1852,13 @@
         <v>239175</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>392</v>
@@ -1873,13 +1867,13 @@
         <v>256591</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>613</v>
@@ -1888,13 +1882,13 @@
         <v>495766</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,13 +1903,13 @@
         <v>118473</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>173</v>
@@ -1924,13 +1918,13 @@
         <v>117596</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>292</v>
@@ -1939,7 +1933,7 @@
         <v>236068</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>122</v>
@@ -2016,10 +2010,10 @@
         <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>553</v>
@@ -2028,13 +2022,13 @@
         <v>322691</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>860</v>
@@ -2043,13 +2037,13 @@
         <v>591640</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,13 +2058,13 @@
         <v>209807</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>320</v>
@@ -2079,13 +2073,13 @@
         <v>195343</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>547</v>
@@ -2094,13 +2088,13 @@
         <v>405150</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,13 +2109,13 @@
         <v>120163</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>127</v>
@@ -2130,13 +2124,13 @@
         <v>77608</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>254</v>
@@ -2145,13 +2139,13 @@
         <v>197771</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,7 +2201,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2216,16 +2210,16 @@
         <v>557</v>
       </c>
       <c r="D24" s="7">
-        <v>368745</v>
+        <v>368746</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>939</v>
@@ -2234,13 +2228,13 @@
         <v>599765</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>1496</v>
@@ -2249,13 +2243,13 @@
         <v>968510</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,13 +2264,13 @@
         <v>236663</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>543</v>
@@ -2285,13 +2279,13 @@
         <v>306565</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>875</v>
@@ -2300,13 +2294,13 @@
         <v>543228</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,13 +2315,13 @@
         <v>90824</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>223</v>
@@ -2336,13 +2330,13 @@
         <v>119108</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>360</v>
@@ -2351,13 +2345,13 @@
         <v>209932</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,7 +2363,7 @@
         <v>1026</v>
       </c>
       <c r="D27" s="7">
-        <v>696232</v>
+        <v>696233</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2425,13 +2419,13 @@
         <v>1551381</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H28" s="7">
         <v>2746</v>
@@ -2440,13 +2434,13 @@
         <v>1898339</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M28" s="7">
         <v>4369</v>
@@ -2455,13 +2449,13 @@
         <v>3449720</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,13 +2470,13 @@
         <v>1246750</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>1846</v>
@@ -2491,13 +2485,13 @@
         <v>1356389</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>3027</v>
@@ -2506,13 +2500,13 @@
         <v>2603139</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,13 +2521,13 @@
         <v>584338</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>762</v>
@@ -2542,13 +2536,13 @@
         <v>547178</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>1330</v>
@@ -2557,13 +2551,13 @@
         <v>1131516</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,7 +2613,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
